--- a/ds/blog/model-validation/ModeloCirurgiaXPTO_M_v3_validacao.xlsx
+++ b/ds/blog/model-validation/ModeloCirurgiaXPTO_M_v3_validacao.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Blog Training Data" sheetId="5" r:id="rId1"/>
-    <sheet name="Validacao" sheetId="7" r:id="rId2"/>
+    <sheet name="ValidacaoLN" sheetId="8" r:id="rId2"/>
+    <sheet name="Validacao" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>IDADE</t>
   </si>
@@ -172,6 +173,9 @@
   </si>
   <si>
     <t>Percentile</t>
+  </si>
+  <si>
+    <t>Predicted Ln(CUSTO TOTAL)</t>
   </si>
 </sst>
 </file>
@@ -327,6 +331,1585 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normal Probability Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ValidacaoLN!$F$38:$F$237</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32.75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38.25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43.25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44.25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44.75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47.25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49.25</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50.25</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51.25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>52.75</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53.25</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54.25</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>54.75</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>56.75</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>57.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>58.75</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>59.25</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>59.75</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60.25</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>60.75</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61.25</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>61.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>62.25</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>62.75</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>63.25</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>64.25</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>64.75</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>65.25</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>66.25</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>66.75</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>67.25</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>67.75</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>68.25</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>69.25</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>69.75</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>70.25</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>70.75</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>71.25</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>71.75</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>72.25</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>72.75</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>73.25</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>73.75</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>74.75</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>75.25</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.75</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>76.25</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>76.75</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>77.25</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>77.75</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>78.25</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>79.25</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>79.75</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>80.25</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>81.75</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>82.25</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>82.75</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>83.25</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>84.25</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>85.25</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>85.75</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>86.25</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>86.75</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>87.75</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>88.25</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>89.25</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>89.75</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>91.75</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>92.75</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>93.25</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>94.25</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>94.75</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>95.25</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>95.75</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>96.75</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>97.25</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>98.25</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>99.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ValidacaoLN!$G$38:$G$237</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>7.791917970716827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.90922157109584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.931432310050015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.00234519630035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.059207402814747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.167760156486215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.232843441750513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.25917638661797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.31675959791944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.461250623881681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.516145036322633</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.51920409931899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.550012291131624</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.57715999731969</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.57804813284569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.57804813284569</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.581399134600266</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5825277596057</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.619530966347557</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.627186306594677</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.627186306594677</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.638709810599403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.63894738461272</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.649666920218083</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.667956632822564</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.670781676398481</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.672379254724551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.672865968596614</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.672865968596614</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.67393797155795</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.67393797155795</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.674495851628206</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.67646517593824</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.697218958495545</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.697218958495545</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.69962386960461</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.71265754431799</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.719357589745563</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.719357589745563</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.737153927560188</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.738758359908523</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.739473380365995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.739473380365995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.749398069460787</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.749398069460787</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.751013759723273</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.764387428108161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.766644636741037</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.766730188814046</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.767479348662142</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.770425617404017</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.773136986795265</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.776329832719476</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.776916087321078</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.777239132058071</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.782804626961508</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.78745976438454</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.791328546890366</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.79278653741637</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.807884681377837</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.813840553667425</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.81703603889768</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.818726456162725</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.819832860419628</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.820868869001806</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.825574928836823</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.83020907911768</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.83144075980536</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.836318169584611</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.844033519644085</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.845619883039358</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.850705629504215</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.85415273862208</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.855984845440774</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.85665646004739</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.861958957332113</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.86514022055082</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.871631127234593</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.871948214842268</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.877243180652496</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.887521041390983</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.89879247839528</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.90422889386704</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.911003352680085</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.911003352680085</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.919255234245571</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.925161703354577</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.927200387265491</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.931606547525563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.939459981379838</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.947006944514944</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.956874116722802</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.960349080761162</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.962648133415024</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.967422987086582</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.97518081471526</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.975753765891468</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.979399399937713</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.979401363644003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.98194284672745</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.982622047010555</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.984345510987738</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.98525493765389</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.990154029407143</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.991628181960706</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.991858511514826</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.993889901390053</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.002162815115788</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.004637122239487</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.013857180884168</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.020100943160482</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.021423197822612</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.023486369195136</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.025551152481295</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.058331240411411</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.058570804660782</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.06825822790986</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.06993004693498</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.070098196117331</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.076718965816777</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.077313121816204</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.081176503998153</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.082906176169165</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.083691578783668</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.093490265792643</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.096513323677051</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.131365085317826</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.138720354530458</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9.151412747618602</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.159609788980034</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.173498017583238</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.180563689974656</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.182614098643984</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.183179852526102</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.190306904780879</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.197313940209487</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.20820256216561</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.216218050489011</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.226023335171114</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.229643443688776</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.255056926816253</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.25522926231197</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.27556103971014</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.281896896589367</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.32089625423844</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.335559965517118</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.338092470916221</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9.338563924416068</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9.339189328700337</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.364760356991885</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9.371249244757858</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9.397214522763052</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9.420756014969748</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9.421162455679393</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9.439407363257485</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9.44673312058332</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9.456476451817533</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9.466559424562182</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9.505908023872021</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9.507971948304675</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.514302668869234</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9.551003885792788</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.552201307842866</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9.56651899981923</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>9.567010133837063</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>9.571585511673127</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>9.606857400981701</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>9.618661906063043</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.666533088995034</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>9.69990923205824</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>9.717827772441998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>9.718115111915035</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.726508182278037</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.731166138940329</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.740087709270227</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.741895719734019</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.758807989809198</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.770015066393727</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9.776833230495466</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.778195167473996</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.783676609453487</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.805766109110773</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.85161608857931</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.865211375623223</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.88892070581721</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9.922420259626495</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9.926262982452037</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9.96705618691878</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.983708629264496</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9.993815271357874</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>10.09242585750927</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10.10430795697096</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.12915523903072</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.17743773174044</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10.19911500952176</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.33161698385797</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.37859671351672</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.45345147769503</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10.58187263397573</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.67415253059482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2127457792"/>
+        <c:axId val="-2124839568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2127457792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample Percentile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124839568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2124839568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ln(CUSTO TOTAL)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127457792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1906,6 +3489,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2448,7 +4071,545 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2748,7 +4909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B171" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -13434,7 +15595,4643 @@
   <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.61922565504588578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.38344041186700634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.33317990353761634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.40820532977569735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6">
+        <v>19.378572174616334</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.3841837267583095</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9.6913256505959939</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5.4392470877091695E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6">
+        <v>187</v>
+      </c>
+      <c r="C13" s="6">
+        <v>31.160107565112451</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.16663159125728583</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
+        <v>201</v>
+      </c>
+      <c r="C14" s="7">
+        <v>50.538679739728785</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6">
+        <v>7.9737855054848561</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.30462678041378266</v>
+      </c>
+      <c r="D17" s="6">
+        <v>26.175589338054426</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1.9435501119491744E-64</v>
+      </c>
+      <c r="F17" s="6">
+        <v>7.3728388021551439</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8.5747322088145683</v>
+      </c>
+      <c r="H17" s="6">
+        <v>7.3728388021551439</v>
+      </c>
+      <c r="I17" s="6">
+        <v>8.5747322088145683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6">
+        <v>7.5042898229539237E-3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.8826894010671655E-3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2.6032252452088147</v>
+      </c>
+      <c r="E18" s="6">
+        <v>9.97612989181435E-3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1.8175189817897716E-3</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.3191060664118076E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.8175189817897716E-3</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1.3191060664118076E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>65535</v>
+      </c>
+      <c r="E19" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-6.4770406634310579E-2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6.6647590165264087E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>-0.97183418745826056</v>
+      </c>
+      <c r="E20" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" s="6">
+        <v>-0.19624817605524578</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6.6707362786624619E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>-0.19624817605524578</v>
+      </c>
+      <c r="I20" s="6">
+        <v>6.6707362786624619E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1.2927677270097573E-3</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.15390232010326133</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8.3999235758263433E-3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.99330686388783174</v>
+      </c>
+      <c r="F21" s="6">
+        <v>-0.30231511525432642</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.30490065070834593</v>
+      </c>
+      <c r="H21" s="6">
+        <v>-0.30231511525432642</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.30490065070834593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>65535</v>
+      </c>
+      <c r="E22" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.56467356143038627</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.12191319991844556</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4.6317672065709656</v>
+      </c>
+      <c r="E23" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.32417160856908367</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.80517551429168888</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.32417160856908367</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.80517551429168888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3.6295033989501711E-3</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.14102971868174491</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2.5735734516642551E-2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.97949556393187387</v>
+      </c>
+      <c r="F24" s="6">
+        <v>-0.27458419927745686</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.28184320607535723</v>
+      </c>
+      <c r="H24" s="6">
+        <v>-0.27458419927745686</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.28184320607535723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.18467095152964186</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.762444411361107E-2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1.8916466383637469</v>
+      </c>
+      <c r="E25" s="6">
+        <v>6.0083743600160333E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-7.9158189925728761E-3</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.37725772205185659</v>
+      </c>
+      <c r="H25" s="6">
+        <v>-7.9158189925728761E-3</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.37725772205185659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.10262170060425289</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.15182230475344005</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.67593296499424704</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.4999182820386272</v>
+      </c>
+      <c r="F26" s="6">
+        <v>-0.19688287154652395</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.40212627275502977</v>
+      </c>
+      <c r="H26" s="6">
+        <v>-0.19688287154652395</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.40212627275502977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.47461393322437068</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.10431817996564913</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4.5496761291335419</v>
+      </c>
+      <c r="E27" s="6">
+        <v>9.6471903377552998E-6</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.2688222222573986</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.68040564419134275</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.2688222222573986</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.68040564419134275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6">
+        <v>-8.5677535952620161E-5</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3.6554985954244746E-3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>-2.3437989022854853E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.98132589357534905</v>
+      </c>
+      <c r="F28" s="6">
+        <v>-7.2969930577291772E-3</v>
+      </c>
+      <c r="G28" s="6">
+        <v>7.125637985823937E-3</v>
+      </c>
+      <c r="H28" s="6">
+        <v>-7.2969930577291772E-3</v>
+      </c>
+      <c r="I28" s="6">
+        <v>7.125637985823937E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-7.5029567111743121E-5</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.4867371895985399E-3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>-5.0465924735496243E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.95980496652545044</v>
+      </c>
+      <c r="F29" s="6">
+        <v>-3.0079621595559352E-3</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2.8579030253324486E-3</v>
+      </c>
+      <c r="H29" s="6">
+        <v>-3.0079621595559352E-3</v>
+      </c>
+      <c r="I29" s="6">
+        <v>2.8579030253324486E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5.0086442887136273E-3</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.837207702277654E-3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2.7262264808188137</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7.015428794996394E-3</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1.3843276396126149E-3</v>
+      </c>
+      <c r="G30" s="6">
+        <v>8.6329609378146405E-3</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1.3843276396126149E-3</v>
+      </c>
+      <c r="I30" s="6">
+        <v>8.6329609378146405E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7">
+        <v>9.4137214057295384E-3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8.3824707212720971E-3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1.1230246688294954</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.26286675424051104</v>
+      </c>
+      <c r="F31" s="7">
+        <v>-7.1226387227655303E-3</v>
+      </c>
+      <c r="G31" s="7">
+        <v>2.5950081534224609E-2</v>
+      </c>
+      <c r="H31" s="7">
+        <v>-7.1226387227655303E-3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2.5950081534224609E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6">
+        <v>9.4710370800176413</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.90755963349907631</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2.3050148394362364</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G38" s="6">
+        <v>7.7919179707168276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="6">
+        <v>9.5315613979942313</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1.0503112359815034</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2.6675745544454563</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="6">
+        <v>7.9092215710958396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6">
+        <v>9.737885406722695</v>
+      </c>
+      <c r="C40" s="6">
+        <v>4.0309760751300772E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.10237850304959296</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="G40" s="6">
+        <v>7.9314323100500159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6">
+        <v>9.6120391372661498</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.71957784659182344</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1.827579757077652</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="G41" s="6">
+        <v>8.0023451963003502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="6">
+        <v>9.4119194985741785</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.571789130690318</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1.452226809810917</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="G42" s="6">
+        <v>8.0592074028147476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="6">
+        <v>10.04465437121768</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-0.23888826210690617</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-0.60672706100927787</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="G43" s="6">
+        <v>8.1677601564862155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>7</v>
+      </c>
+      <c r="B44" s="6">
+        <v>9.7464725818643014</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.92767994873051762</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2.3561163026026835</v>
+      </c>
+      <c r="F44" s="6">
+        <v>3.25</v>
+      </c>
+      <c r="G44" s="6">
+        <v>8.2328434417505125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>8</v>
+      </c>
+      <c r="B45" s="6">
+        <v>9.4740597870337808</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.37755630154553188</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.95891536562704471</v>
+      </c>
+      <c r="F45" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="G45" s="6">
+        <v>8.2591763866179697</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>9</v>
+      </c>
+      <c r="B46" s="6">
+        <v>9.6819413889939199</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.2851147979248605</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.72413295600848937</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4.25</v>
+      </c>
+      <c r="G46" s="6">
+        <v>8.3167595979194431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>10</v>
+      </c>
+      <c r="B47" s="6">
+        <v>9.4254332061190489</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.35824340333443772</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.90986457565585444</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4.75</v>
+      </c>
+      <c r="G47" s="6">
+        <v>8.461250623881682</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>11</v>
+      </c>
+      <c r="B48" s="6">
+        <v>9.6110005952466206</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.5181546437841007</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1.3160062424111383</v>
+      </c>
+      <c r="F48" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="G48" s="6">
+        <v>8.5161450363226336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>12</v>
+      </c>
+      <c r="B49" s="6">
+        <v>8.8964378827402975</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1.2809998490001391</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3.2534761929381291</v>
+      </c>
+      <c r="F49" s="6">
+        <v>5.75</v>
+      </c>
+      <c r="G49" s="6">
+        <v>8.5192040993189906</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>13</v>
+      </c>
+      <c r="B50" s="6">
+        <v>9.5293924727173671</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.92405900497766247</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2.3469198500776676</v>
+      </c>
+      <c r="F50" s="6">
+        <v>6.25</v>
+      </c>
+      <c r="G50" s="6">
+        <v>8.5500122911316243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>14</v>
+      </c>
+      <c r="B51" s="6">
+        <v>9.1709594338337759</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.75530354861826154</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1.9183156936273253</v>
+      </c>
+      <c r="F51" s="6">
+        <v>6.75</v>
+      </c>
+      <c r="G51" s="6">
+        <v>8.5771599973196899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>15</v>
+      </c>
+      <c r="B52" s="6">
+        <v>9.3991675001171426</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.69325835739212671</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1.7607336668237441</v>
+      </c>
+      <c r="F52" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="G52" s="6">
+        <v>8.5780481328456908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>16</v>
+      </c>
+      <c r="B53" s="6">
+        <v>9.456523443443988</v>
+      </c>
+      <c r="C53" s="6">
+        <v>-0.50951649892904349</v>
+      </c>
+      <c r="D53" s="6">
+        <v>-1.2940671308187242</v>
+      </c>
+      <c r="F53" s="6">
+        <v>7.75</v>
+      </c>
+      <c r="G53" s="6">
+        <v>8.5780481328456908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>17</v>
+      </c>
+      <c r="B54" s="6">
+        <v>9.5566487698491756</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.54765918712178063</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1.3909417152041896</v>
+      </c>
+      <c r="F54" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="G54" s="6">
+        <v>8.5813991346002663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>18</v>
+      </c>
+      <c r="B55" s="6">
+        <v>9.4289012193660131</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.29760696291202393</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.75586048619962443</v>
+      </c>
+      <c r="F55" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="G55" s="6">
+        <v>8.5825277596056999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>19</v>
+      </c>
+      <c r="B56" s="6">
+        <v>9.5903215882331807</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.4034936831246938</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1.0247909811010214</v>
+      </c>
+      <c r="F56" s="6">
+        <v>9.25</v>
+      </c>
+      <c r="G56" s="6">
+        <v>8.6195309663475577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>20</v>
+      </c>
+      <c r="B57" s="6">
+        <v>9.3743000939676708</v>
+      </c>
+      <c r="C57" s="6">
+        <v>-0.11907083165570143</v>
+      </c>
+      <c r="D57" s="6">
+        <v>-0.30241542679926287</v>
+      </c>
+      <c r="F57" s="6">
+        <v>9.75</v>
+      </c>
+      <c r="G57" s="6">
+        <v>8.6271863065946768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>21</v>
+      </c>
+      <c r="B58" s="6">
+        <v>9.5704621778498939</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.14765293406514068</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.37500808932440893</v>
+      </c>
+      <c r="F58" s="6">
+        <v>10.25</v>
+      </c>
+      <c r="G58" s="6">
+        <v>8.6271863065946768</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>22</v>
+      </c>
+      <c r="B59" s="6">
+        <v>9.4230612781213345</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.12914002972153149</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.32798911926669516</v>
+      </c>
+      <c r="F59" s="6">
+        <v>10.75</v>
+      </c>
+      <c r="G59" s="6">
+        <v>8.6387098105994031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>23</v>
+      </c>
+      <c r="B60" s="6">
+        <v>9.6276612086774147</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0.11242650059281267</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.28554019223309118</v>
+      </c>
+      <c r="F60" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="G60" s="6">
+        <v>8.6389473846127203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>24</v>
+      </c>
+      <c r="B61" s="6">
+        <v>9.5331443429711342</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0.19802179596919522</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.50293464075853944</v>
+      </c>
+      <c r="F61" s="6">
+        <v>11.75</v>
+      </c>
+      <c r="G61" s="6">
+        <v>8.6496669202180829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>25</v>
+      </c>
+      <c r="B62" s="6">
+        <v>9.5271551035838993</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0.24967812691156688</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.6341310987961557</v>
+      </c>
+      <c r="F62" s="6">
+        <v>12.25</v>
+      </c>
+      <c r="G62" s="6">
+        <v>8.6679566328225643</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>26</v>
+      </c>
+      <c r="B63" s="6">
+        <v>9.7604829237355304</v>
+      </c>
+      <c r="C63" s="6">
+        <v>-0.15362552275382946</v>
+      </c>
+      <c r="D63" s="6">
+        <v>-0.39017723639653978</v>
+      </c>
+      <c r="F63" s="6">
+        <v>12.75</v>
+      </c>
+      <c r="G63" s="6">
+        <v>8.670781676398482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>27</v>
+      </c>
+      <c r="B64" s="6">
+        <v>9.6822400381998275</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0.20668066761738224</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.52492639414326636</v>
+      </c>
+      <c r="F64" s="6">
+        <v>13.25</v>
+      </c>
+      <c r="G64" s="6">
+        <v>8.672379254724552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>28</v>
+      </c>
+      <c r="B65" s="6">
+        <v>9.426154668304962</v>
+      </c>
+      <c r="C65" s="6">
+        <v>8.8148000564272522E-2</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.2238777947669581</v>
+      </c>
+      <c r="F65" s="6">
+        <v>13.75</v>
+      </c>
+      <c r="G65" s="6">
+        <v>8.6728659685966143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>29</v>
+      </c>
+      <c r="B66" s="6">
+        <v>9.535885284793272</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0.22292270501592704</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.56617782913931414</v>
+      </c>
+      <c r="F66" s="6">
+        <v>14.25</v>
+      </c>
+      <c r="G66" s="6">
+        <v>8.6728659685966143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>30</v>
+      </c>
+      <c r="B67" s="6">
+        <v>9.4160812076977116</v>
+      </c>
+      <c r="C67" s="6">
+        <v>-9.5184953459272137E-2</v>
+      </c>
+      <c r="D67" s="6">
+        <v>-0.24175020804833219</v>
+      </c>
+      <c r="F67" s="6">
+        <v>14.75</v>
+      </c>
+      <c r="G67" s="6">
+        <v>8.6739379715579492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>31</v>
+      </c>
+      <c r="B68" s="6">
+        <v>9.4475232075469613</v>
+      </c>
+      <c r="C68" s="6">
+        <v>-5.030868478390893E-2</v>
+      </c>
+      <c r="D68" s="6">
+        <v>-0.12777371392372322</v>
+      </c>
+      <c r="F68" s="6">
+        <v>15.25</v>
+      </c>
+      <c r="G68" s="6">
+        <v>8.6739379715579492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>32</v>
+      </c>
+      <c r="B69" s="6">
+        <v>9.444036634202936</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0.42117474142028755</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1.0696972332567616</v>
+      </c>
+      <c r="F69" s="6">
+        <v>15.75</v>
+      </c>
+      <c r="G69" s="6">
+        <v>8.6744958516282065</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>33</v>
+      </c>
+      <c r="B70" s="6">
+        <v>9.5145435418817144</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0.40787671774478085</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1.0359229877132057</v>
+      </c>
+      <c r="F70" s="6">
+        <v>16.25</v>
+      </c>
+      <c r="G70" s="6">
+        <v>8.6764651759382421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>34</v>
+      </c>
+      <c r="B71" s="6">
+        <v>9.2640362393824081</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0.5059788270113188</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1.285082171631003</v>
+      </c>
+      <c r="F71" s="6">
+        <v>16.75</v>
+      </c>
+      <c r="G71" s="6">
+        <v>8.6972189584955455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>35</v>
+      </c>
+      <c r="B72" s="6">
+        <v>9.0056542121424155</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0.73624150759160401</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1.8699020293185846</v>
+      </c>
+      <c r="F72" s="6">
+        <v>17.25</v>
+      </c>
+      <c r="G72" s="6">
+        <v>8.6972189584955455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>36</v>
+      </c>
+      <c r="B73" s="6">
+        <v>8.9672331416593298</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1.2318818678624304</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3.1287266214206531</v>
+      </c>
+      <c r="F73" s="6">
+        <v>17.75</v>
+      </c>
+      <c r="G73" s="6">
+        <v>8.6996238696046113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>37</v>
+      </c>
+      <c r="B74" s="6">
+        <v>9.072920963786089</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0.49359803603314134</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1.253637508519853</v>
+      </c>
+      <c r="F74" s="6">
+        <v>18.25</v>
+      </c>
+      <c r="G74" s="6">
+        <v>8.7126575443179917</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>38</v>
+      </c>
+      <c r="B75" s="6">
+        <v>9.0724020994881673</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0.37433102109515204</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0.95072381652651206</v>
+      </c>
+      <c r="F75" s="6">
+        <v>18.75</v>
+      </c>
+      <c r="G75" s="6">
+        <v>8.7193575897455631</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>39</v>
+      </c>
+      <c r="B76" s="6">
+        <v>9.4684936592117914</v>
+      </c>
+      <c r="C76" s="6">
+        <v>-0.48414814822405283</v>
+      </c>
+      <c r="D76" s="6">
+        <v>-1.229636736750205</v>
+      </c>
+      <c r="F76" s="6">
+        <v>19.25</v>
+      </c>
+      <c r="G76" s="6">
+        <v>8.7193575897455631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>40</v>
+      </c>
+      <c r="B77" s="6">
+        <v>9.1371594338145545</v>
+      </c>
+      <c r="C77" s="6">
+        <v>-0.16140566792308597</v>
+      </c>
+      <c r="D77" s="6">
+        <v>-0.40993720522521365</v>
+      </c>
+      <c r="F77" s="6">
+        <v>19.75</v>
+      </c>
+      <c r="G77" s="6">
+        <v>8.7371539275601879</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>41</v>
+      </c>
+      <c r="B78" s="6">
+        <v>9.4561856540654983</v>
+      </c>
+      <c r="C78" s="6">
+        <v>-0.60020080862472369</v>
+      </c>
+      <c r="D78" s="6">
+        <v>-1.5243866292153956</v>
+      </c>
+      <c r="F78" s="6">
+        <v>20.25</v>
+      </c>
+      <c r="G78" s="6">
+        <v>8.7387583599085232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>42</v>
+      </c>
+      <c r="B79" s="6">
+        <v>9.267863119772878</v>
+      </c>
+      <c r="C79" s="6">
+        <v>-0.17134979609582679</v>
+      </c>
+      <c r="D79" s="6">
+        <v>-0.43519324588344643</v>
+      </c>
+      <c r="F79" s="6">
+        <v>20.75</v>
+      </c>
+      <c r="G79" s="6">
+        <v>8.739473380365995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>43</v>
+      </c>
+      <c r="B80" s="6">
+        <v>9.2867020781297107</v>
+      </c>
+      <c r="C80" s="6">
+        <v>-0.29507389616900426</v>
+      </c>
+      <c r="D80" s="6">
+        <v>-0.74942701756965513</v>
+      </c>
+      <c r="F80" s="6">
+        <v>21.25</v>
+      </c>
+      <c r="G80" s="6">
+        <v>8.739473380365995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>44</v>
+      </c>
+      <c r="B81" s="6">
+        <v>8.8168785827690161</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0.25137964514084388</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.63845260520001967</v>
+      </c>
+      <c r="F81" s="6">
+        <v>21.75</v>
+      </c>
+      <c r="G81" s="6">
+        <v>8.7493980694607867</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>45</v>
+      </c>
+      <c r="B82" s="6">
+        <v>9.000701666302481</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1.9399276858001357E-2</v>
+      </c>
+      <c r="D82" s="6">
+        <v>4.927017397151634E-2</v>
+      </c>
+      <c r="F82" s="6">
+        <v>22.25</v>
+      </c>
+      <c r="G82" s="6">
+        <v>8.7493980694607867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>46</v>
+      </c>
+      <c r="B83" s="6">
+        <v>9.173480811594283</v>
+      </c>
+      <c r="C83" s="6">
+        <v>-0.18332678218713916</v>
+      </c>
+      <c r="D83" s="6">
+        <v>-0.46561232761999055</v>
+      </c>
+      <c r="F83" s="6">
+        <v>22.75</v>
+      </c>
+      <c r="G83" s="6">
+        <v>8.7510137597232731</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>47</v>
+      </c>
+      <c r="B84" s="6">
+        <v>8.8603986410146494</v>
+      </c>
+      <c r="C84" s="6">
+        <v>-8.3159508956578421E-2</v>
+      </c>
+      <c r="D84" s="6">
+        <v>-0.21120805191181849</v>
+      </c>
+      <c r="F84" s="6">
+        <v>23.25</v>
+      </c>
+      <c r="G84" s="6">
+        <v>8.7643874281081615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>48</v>
+      </c>
+      <c r="B85" s="6">
+        <v>8.9638199306243624</v>
+      </c>
+      <c r="C85" s="6">
+        <v>-9.2188803389769092E-2</v>
+      </c>
+      <c r="D85" s="6">
+        <v>-0.2341406029970852</v>
+      </c>
+      <c r="F85" s="6">
+        <v>23.75</v>
+      </c>
+      <c r="G85" s="6">
+        <v>8.766644636741038</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>49</v>
+      </c>
+      <c r="B86" s="6">
+        <v>8.9453547280932799</v>
+      </c>
+      <c r="C86" s="6">
+        <v>-0.15789496370874012</v>
+      </c>
+      <c r="D86" s="6">
+        <v>-0.40102073845846342</v>
+      </c>
+      <c r="F86" s="6">
+        <v>24.25</v>
+      </c>
+      <c r="G86" s="6">
+        <v>8.7667301888140461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>50</v>
+      </c>
+      <c r="B87" s="6">
+        <v>8.8873741503371875</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0.32884390015182419</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0.83519588325631966</v>
+      </c>
+      <c r="F87" s="6">
+        <v>24.75</v>
+      </c>
+      <c r="G87" s="6">
+        <v>8.7674793486621425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>51</v>
+      </c>
+      <c r="B88" s="6">
+        <v>9.0768678460282253</v>
+      </c>
+      <c r="C88" s="6">
+        <v>-0.40237199440001881</v>
+      </c>
+      <c r="D88" s="6">
+        <v>-1.0219421224032894</v>
+      </c>
+      <c r="F88" s="6">
+        <v>25.25</v>
+      </c>
+      <c r="G88" s="6">
+        <v>8.7704256174040172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>52</v>
+      </c>
+      <c r="B89" s="6">
+        <v>9.0150039168238632</v>
+      </c>
+      <c r="C89" s="6">
+        <v>4.3327323587547539E-2</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.11004249212506916</v>
+      </c>
+      <c r="F89" s="6">
+        <v>25.75</v>
+      </c>
+      <c r="G89" s="6">
+        <v>8.7731369867952651</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>53</v>
+      </c>
+      <c r="B90" s="6">
+        <v>9.5145909280167107</v>
+      </c>
+      <c r="C90" s="6">
+        <v>-0.69475806759708192</v>
+      </c>
+      <c r="D90" s="6">
+        <v>-1.7645426223454301</v>
+      </c>
+      <c r="F90" s="6">
+        <v>26.25</v>
+      </c>
+      <c r="G90" s="6">
+        <v>8.7763298327194761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>54</v>
+      </c>
+      <c r="B91" s="6">
+        <v>8.8956876990998879</v>
+      </c>
+      <c r="C91" s="6">
+        <v>8.3713664544115218E-2</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0.21261549314816358</v>
+      </c>
+      <c r="F91" s="6">
+        <v>26.75</v>
+      </c>
+      <c r="G91" s="6">
+        <v>8.7769160873210783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>55</v>
+      </c>
+      <c r="B92" s="6">
+        <v>8.8470283121606492</v>
+      </c>
+      <c r="C92" s="6">
+        <v>-7.0698479441173134E-2</v>
+      </c>
+      <c r="D92" s="6">
+        <v>-0.17955959941628188</v>
+      </c>
+      <c r="F92" s="6">
+        <v>27.25</v>
+      </c>
+      <c r="G92" s="6">
+        <v>8.7772391320580709</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>56</v>
+      </c>
+      <c r="B93" s="6">
+        <v>9.1222768548312452</v>
+      </c>
+      <c r="C93" s="6">
+        <v>-0.13965480782069051</v>
+      </c>
+      <c r="D93" s="6">
+        <v>-0.35469449339015252</v>
+      </c>
+      <c r="F93" s="6">
+        <v>27.75</v>
+      </c>
+      <c r="G93" s="6">
+        <v>8.782804626961509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>57</v>
+      </c>
+      <c r="B94" s="6">
+        <v>8.9471781679737585</v>
+      </c>
+      <c r="C94" s="6">
+        <v>-0.17969881931161602</v>
+      </c>
+      <c r="D94" s="6">
+        <v>-0.45639804796680333</v>
+      </c>
+      <c r="F94" s="6">
+        <v>28.25</v>
+      </c>
+      <c r="G94" s="6">
+        <v>8.7874597643845398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>58</v>
+      </c>
+      <c r="B95" s="6">
+        <v>8.7690990544690042</v>
+      </c>
+      <c r="C95" s="6">
+        <v>0.21284379225844496</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0.54057946335280516</v>
+      </c>
+      <c r="F95" s="6">
+        <v>28.75</v>
+      </c>
+      <c r="G95" s="6">
+        <v>8.7913285468903659</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>59</v>
+      </c>
+      <c r="B96" s="6">
+        <v>8.621783635487887</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0.11697472442063628</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0.29709174546358375</v>
+      </c>
+      <c r="F96" s="6">
+        <v>29.25</v>
+      </c>
+      <c r="G96" s="6">
+        <v>8.7927865374163705</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>60</v>
+      </c>
+      <c r="B97" s="6">
+        <v>8.6296882199691414</v>
+      </c>
+      <c r="C97" s="6">
+        <v>9.0215906302617555E-3</v>
+      </c>
+      <c r="D97" s="6">
+        <v>2.2912985010029557E-2</v>
+      </c>
+      <c r="F97" s="6">
+        <v>29.75</v>
+      </c>
+      <c r="G97" s="6">
+        <v>8.8078846813778373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>61</v>
+      </c>
+      <c r="B98" s="6">
+        <v>8.7994138242067539</v>
+      </c>
+      <c r="C98" s="6">
+        <v>-5.00157547459672E-2</v>
+      </c>
+      <c r="D98" s="6">
+        <v>-0.12702973186518998</v>
+      </c>
+      <c r="F98" s="6">
+        <v>30.25</v>
+      </c>
+      <c r="G98" s="6">
+        <v>8.8138405536674256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>62</v>
+      </c>
+      <c r="B99" s="6">
+        <v>8.7622806828018085</v>
+      </c>
+      <c r="C99" s="6">
+        <v>0.14872266987827665</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0.3777249983103762</v>
+      </c>
+      <c r="F99" s="6">
+        <v>30.75</v>
+      </c>
+      <c r="G99" s="6">
+        <v>8.8170360388976832</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>63</v>
+      </c>
+      <c r="B100" s="6">
+        <v>8.8114945059340108</v>
+      </c>
+      <c r="C100" s="6">
+        <v>-0.11427554743846535</v>
+      </c>
+      <c r="D100" s="6">
+        <v>-0.290236390984913</v>
+      </c>
+      <c r="F100" s="6">
+        <v>31.25</v>
+      </c>
+      <c r="G100" s="6">
+        <v>8.8187264561627252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>64</v>
+      </c>
+      <c r="B101" s="6">
+        <v>8.9258731490994077</v>
+      </c>
+      <c r="C101" s="6">
+        <v>-0.21321560478141599</v>
+      </c>
+      <c r="D101" s="6">
+        <v>-0.54152379070199774</v>
+      </c>
+      <c r="F101" s="6">
+        <v>31.75</v>
+      </c>
+      <c r="G101" s="6">
+        <v>8.8198328604196288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>65</v>
+      </c>
+      <c r="B102" s="6">
+        <v>8.6826533523057545</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0.16296653073360368</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0.41390147578966807</v>
+      </c>
+      <c r="F102" s="6">
+        <v>32.25</v>
+      </c>
+      <c r="G102" s="6">
+        <v>8.8208688690018064</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>66</v>
+      </c>
+      <c r="B103" s="6">
+        <v>9.0075654882942793</v>
+      </c>
+      <c r="C103" s="6">
+        <v>-0.26809210792828431</v>
+      </c>
+      <c r="D103" s="6">
+        <v>-0.68089882394605794</v>
+      </c>
+      <c r="F103" s="6">
+        <v>32.75</v>
+      </c>
+      <c r="G103" s="6">
+        <v>8.8255749288368239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>67</v>
+      </c>
+      <c r="B104" s="6">
+        <v>8.7080395249746285</v>
+      </c>
+      <c r="C104" s="6">
+        <v>-0.12999139212893773</v>
+      </c>
+      <c r="D104" s="6">
+        <v>-0.33015140470819676</v>
+      </c>
+      <c r="F104" s="6">
+        <v>33.25</v>
+      </c>
+      <c r="G104" s="6">
+        <v>8.8302090791176795</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>68</v>
+      </c>
+      <c r="B105" s="6">
+        <v>8.6473250981332139</v>
+      </c>
+      <c r="C105" s="6">
+        <v>-6.5925963532947662E-2</v>
+      </c>
+      <c r="D105" s="6">
+        <v>-0.16743839042476671</v>
+      </c>
+      <c r="F105" s="6">
+        <v>33.75</v>
+      </c>
+      <c r="G105" s="6">
+        <v>8.8314407598053606</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>69</v>
+      </c>
+      <c r="B106" s="6">
+        <v>9.0004446336946238</v>
+      </c>
+      <c r="C106" s="6">
+        <v>-0.2810870439490607</v>
+      </c>
+      <c r="D106" s="6">
+        <v>-0.71390328917323964</v>
+      </c>
+      <c r="F106" s="6">
+        <v>34.25</v>
+      </c>
+      <c r="G106" s="6">
+        <v>8.8363181695846116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>70</v>
+      </c>
+      <c r="B107" s="6">
+        <v>8.7383656712676778</v>
+      </c>
+      <c r="C107" s="6">
+        <v>-6.4427699709728614E-2</v>
+      </c>
+      <c r="D107" s="6">
+        <v>-0.16363310841525799</v>
+      </c>
+      <c r="F107" s="6">
+        <v>34.75</v>
+      </c>
+      <c r="G107" s="6">
+        <v>8.8440335196440856</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>71</v>
+      </c>
+      <c r="B108" s="6">
+        <v>8.6184436919389213</v>
+      </c>
+      <c r="C108" s="6">
+        <v>8.7426146557554318E-3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2.2204443403122671E-2</v>
+      </c>
+      <c r="F108" s="6">
+        <v>35.25</v>
+      </c>
+      <c r="G108" s="6">
+        <v>8.8456198830393582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>72</v>
+      </c>
+      <c r="B109" s="6">
+        <v>8.7477647339381939</v>
+      </c>
+      <c r="C109" s="6">
+        <v>-7.4898765341579576E-2</v>
+      </c>
+      <c r="D109" s="6">
+        <v>-0.19022746186074074</v>
+      </c>
+      <c r="F109" s="6">
+        <v>35.75</v>
+      </c>
+      <c r="G109" s="6">
+        <v>8.8507056295042155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>73</v>
+      </c>
+      <c r="B110" s="6">
+        <v>8.7994138242067539</v>
+      </c>
+      <c r="C110" s="6">
+        <v>-5.00157547459672E-2</v>
+      </c>
+      <c r="D110" s="6">
+        <v>-0.12702973186518998</v>
+      </c>
+      <c r="F110" s="6">
+        <v>36.25</v>
+      </c>
+      <c r="G110" s="6">
+        <v>8.85415273862208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>74</v>
+      </c>
+      <c r="B111" s="6">
+        <v>8.7622806828018085</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0.14872266987827665</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0.3777249983103762</v>
+      </c>
+      <c r="F111" s="6">
+        <v>36.75</v>
+      </c>
+      <c r="G111" s="6">
+        <v>8.8559848454407746</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>75</v>
+      </c>
+      <c r="B112" s="6">
+        <v>8.8114945059340108</v>
+      </c>
+      <c r="C112" s="6">
+        <v>-0.11427554743846535</v>
+      </c>
+      <c r="D112" s="6">
+        <v>-0.290236390984913</v>
+      </c>
+      <c r="F112" s="6">
+        <v>37.25</v>
+      </c>
+      <c r="G112" s="6">
+        <v>8.8566564600473932</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>76</v>
+      </c>
+      <c r="B113" s="6">
+        <v>9.0075654882942793</v>
+      </c>
+      <c r="C113" s="6">
+        <v>-0.26809210792828431</v>
+      </c>
+      <c r="D113" s="6">
+        <v>-0.68089882394605794</v>
+      </c>
+      <c r="F113" s="6">
+        <v>37.75</v>
+      </c>
+      <c r="G113" s="6">
+        <v>8.8619589573321136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>77</v>
+      </c>
+      <c r="B114" s="6">
+        <v>8.7080395249746285</v>
+      </c>
+      <c r="C114" s="6">
+        <v>-0.12999139212893773</v>
+      </c>
+      <c r="D114" s="6">
+        <v>-0.33015140470819676</v>
+      </c>
+      <c r="F114" s="6">
+        <v>38.25</v>
+      </c>
+      <c r="G114" s="6">
+        <v>8.8651402205508205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>78</v>
+      </c>
+      <c r="B115" s="6">
+        <v>9.0005196632617359</v>
+      </c>
+      <c r="C115" s="6">
+        <v>-0.28116207351617284</v>
+      </c>
+      <c r="D115" s="6">
+        <v>-0.71409384884469973</v>
+      </c>
+      <c r="F115" s="6">
+        <v>38.75</v>
+      </c>
+      <c r="G115" s="6">
+        <v>8.8716311272345934</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>79</v>
+      </c>
+      <c r="B116" s="6">
+        <v>8.7383656712676778</v>
+      </c>
+      <c r="C116" s="6">
+        <v>-6.4427699709728614E-2</v>
+      </c>
+      <c r="D116" s="6">
+        <v>-0.16363310841525799</v>
+      </c>
+      <c r="F116" s="6">
+        <v>39.25</v>
+      </c>
+      <c r="G116" s="6">
+        <v>8.8719482148422681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>80</v>
+      </c>
+      <c r="B117" s="6">
+        <v>8.6184436919389213</v>
+      </c>
+      <c r="C117" s="6">
+        <v>8.7426146557554318E-3</v>
+      </c>
+      <c r="D117" s="6">
+        <v>2.2204443403122671E-2</v>
+      </c>
+      <c r="F117" s="6">
+        <v>39.75</v>
+      </c>
+      <c r="G117" s="6">
+        <v>8.8772431806524956</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>81</v>
+      </c>
+      <c r="B118" s="6">
+        <v>8.7477647339381939</v>
+      </c>
+      <c r="C118" s="6">
+        <v>-7.4898765341579576E-2</v>
+      </c>
+      <c r="D118" s="6">
+        <v>-0.19022746186074074</v>
+      </c>
+      <c r="F118" s="6">
+        <v>40.25</v>
+      </c>
+      <c r="G118" s="6">
+        <v>8.8875210413909826</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>82</v>
+      </c>
+      <c r="B119" s="6">
+        <v>9.3786549887284032</v>
+      </c>
+      <c r="C119" s="6">
+        <v>-0.19809129875374687</v>
+      </c>
+      <c r="D119" s="6">
+        <v>-0.50311116353881791</v>
+      </c>
+      <c r="F119" s="6">
+        <v>40.75</v>
+      </c>
+      <c r="G119" s="6">
+        <v>8.8987924783952792</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>83</v>
+      </c>
+      <c r="B120" s="6">
+        <v>9.5179586878469777</v>
+      </c>
+      <c r="C120" s="6">
+        <v>0.1998690845950204</v>
+      </c>
+      <c r="D120" s="6">
+        <v>0.50762637399355792</v>
+      </c>
+      <c r="F120" s="6">
+        <v>41.25</v>
+      </c>
+      <c r="G120" s="6">
+        <v>8.9042288938670406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>84</v>
+      </c>
+      <c r="B121" s="6">
+        <v>9.5864693951272777</v>
+      </c>
+      <c r="C121" s="6">
+        <v>0.11343983693096327</v>
+      </c>
+      <c r="D121" s="6">
+        <v>0.28811385815052698</v>
+      </c>
+      <c r="F121" s="6">
+        <v>41.75</v>
+      </c>
+      <c r="G121" s="6">
+        <v>8.9110033526800851</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>85</v>
+      </c>
+      <c r="B122" s="6">
+        <v>9.0418469604302398</v>
+      </c>
+      <c r="C122" s="6">
+        <v>0.3975604028272457</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1.0097216692593036</v>
+      </c>
+      <c r="F122" s="6">
+        <v>42.25</v>
+      </c>
+      <c r="G122" s="6">
+        <v>8.9110033526800851</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>86</v>
+      </c>
+      <c r="B123" s="6">
+        <v>9.1680059373634215</v>
+      </c>
+      <c r="C123" s="6">
+        <v>0.3379020865085991</v>
+      </c>
+      <c r="D123" s="6">
+        <v>0.85820181388618422</v>
+      </c>
+      <c r="F123" s="6">
+        <v>42.75</v>
+      </c>
+      <c r="G123" s="6">
+        <v>8.919255234245572</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>87</v>
+      </c>
+      <c r="B124" s="6">
+        <v>9.1081707804104859</v>
+      </c>
+      <c r="C124" s="6">
+        <v>0.51049112565255683</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1.2965424822751876</v>
+      </c>
+      <c r="F124" s="6">
+        <v>43.25</v>
+      </c>
+      <c r="G124" s="6">
+        <v>8.9251617033545774</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>88</v>
+      </c>
+      <c r="B125" s="6">
+        <v>9.6907848495436397</v>
+      </c>
+      <c r="C125" s="6">
+        <v>-0.11919933787051207</v>
+      </c>
+      <c r="D125" s="6">
+        <v>-0.30274180615899299</v>
+      </c>
+      <c r="F125" s="6">
+        <v>43.75</v>
+      </c>
+      <c r="G125" s="6">
+        <v>8.9272003872654917</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>89</v>
+      </c>
+      <c r="B126" s="6">
+        <v>8.7675685085795863</v>
+      </c>
+      <c r="C126" s="6">
+        <v>0.17189147280025274</v>
+      </c>
+      <c r="D126" s="6">
+        <v>0.43656899332283494</v>
+      </c>
+      <c r="F126" s="6">
+        <v>44.25</v>
+      </c>
+      <c r="G126" s="6">
+        <v>8.931606547525563</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>90</v>
+      </c>
+      <c r="B127" s="6">
+        <v>8.7934806397866634</v>
+      </c>
+      <c r="C127" s="6">
+        <v>-0.21095288018096348</v>
+      </c>
+      <c r="D127" s="6">
+        <v>-0.53577693552126238</v>
+      </c>
+      <c r="F127" s="6">
+        <v>44.75</v>
+      </c>
+      <c r="G127" s="6">
+        <v>8.939459981379839</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>91</v>
+      </c>
+      <c r="B128" s="6">
+        <v>8.848050844340376</v>
+      </c>
+      <c r="C128" s="6">
+        <v>0.38159259934839973</v>
+      </c>
+      <c r="D128" s="6">
+        <v>0.96916673202610315</v>
+      </c>
+      <c r="F128" s="6">
+        <v>45.25</v>
+      </c>
+      <c r="G128" s="6">
+        <v>8.9470069445149445</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>92</v>
+      </c>
+      <c r="B129" s="6">
+        <v>8.919576071338204</v>
+      </c>
+      <c r="C129" s="6">
+        <v>0.24003371764183079</v>
+      </c>
+      <c r="D129" s="6">
+        <v>0.60963628251766078</v>
+      </c>
+      <c r="F129" s="6">
+        <v>45.75</v>
+      </c>
+      <c r="G129" s="6">
+        <v>8.956874116722803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>93</v>
+      </c>
+      <c r="B130" s="6">
+        <v>9.0616647283058427</v>
+      </c>
+      <c r="C130" s="6">
+        <v>0.40489469625634023</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1.02834926635247</v>
+      </c>
+      <c r="F130" s="6">
+        <v>46.25</v>
+      </c>
+      <c r="G130" s="6">
+        <v>8.9603490807611621</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>94</v>
+      </c>
+      <c r="B131" s="6">
+        <v>9.1182048784178118</v>
+      </c>
+      <c r="C131" s="6">
+        <v>7.2102026363067395E-2</v>
+      </c>
+      <c r="D131" s="6">
+        <v>0.18312431997391412</v>
+      </c>
+      <c r="F131" s="6">
+        <v>46.75</v>
+      </c>
+      <c r="G131" s="6">
+        <v>8.9626481334150245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>95</v>
+      </c>
+      <c r="B132" s="6">
+        <v>8.8091771027784631</v>
+      </c>
+      <c r="C132" s="6">
+        <v>0.26813601903774043</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0.68101034913424008</v>
+      </c>
+      <c r="F132" s="6">
+        <v>47.25</v>
+      </c>
+      <c r="G132" s="6">
+        <v>8.9674229870865823</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>96</v>
+      </c>
+      <c r="B133" s="6">
+        <v>9.486055380728768</v>
+      </c>
+      <c r="C133" s="6">
+        <v>-0.63534975122455251</v>
+      </c>
+      <c r="D133" s="6">
+        <v>-1.6136577154257106</v>
+      </c>
+      <c r="F133" s="6">
+        <v>47.75</v>
+      </c>
+      <c r="G133" s="6">
+        <v>8.9751808147152605</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
+        <v>97</v>
+      </c>
+      <c r="B134" s="6">
+        <v>8.9766458870093455</v>
+      </c>
+      <c r="C134" s="6">
+        <v>0.27841103980690818</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0.70710678894297607</v>
+      </c>
+      <c r="F134" s="6">
+        <v>48.25</v>
+      </c>
+      <c r="G134" s="6">
+        <v>8.9757537658914686</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>98</v>
+      </c>
+      <c r="B135" s="6">
+        <v>8.9453523758629672</v>
+      </c>
+      <c r="C135" s="6">
+        <v>4.6506135651858571E-2</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0.11811602108069928</v>
+      </c>
+      <c r="F135" s="6">
+        <v>48.75</v>
+      </c>
+      <c r="G135" s="6">
+        <v>8.979399399937714</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
+        <v>99</v>
+      </c>
+      <c r="B136" s="6">
+        <v>9.4535436644679258</v>
+      </c>
+      <c r="C136" s="6">
+        <v>2.9327873496072243E-3</v>
+      </c>
+      <c r="D136" s="6">
+        <v>7.4486767725576702E-3</v>
+      </c>
+      <c r="F136" s="6">
+        <v>49.25</v>
+      </c>
+      <c r="G136" s="6">
+        <v>8.9794013636440031</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>100</v>
+      </c>
+      <c r="B137" s="6">
+        <v>8.9337733958971022</v>
+      </c>
+      <c r="C137" s="6">
+        <v>0.29224993927401144</v>
+      </c>
+      <c r="D137" s="6">
+        <v>0.74225474777203271</v>
+      </c>
+      <c r="F137" s="6">
+        <v>49.75</v>
+      </c>
+      <c r="G137" s="6">
+        <v>8.9819428467274491</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>101</v>
+      </c>
+      <c r="B138" s="6">
+        <v>8.8828085800959755</v>
+      </c>
+      <c r="C138" s="6">
+        <v>0.19391038572080177</v>
+      </c>
+      <c r="D138" s="6">
+        <v>0.49249250419389379</v>
+      </c>
+      <c r="F138" s="6">
+        <v>50.25</v>
+      </c>
+      <c r="G138" s="6">
+        <v>8.9826220470105547</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>102</v>
+      </c>
+      <c r="B139" s="6">
+        <v>8.8817577749459566</v>
+      </c>
+      <c r="C139" s="6">
+        <v>2.2471118921083999E-2</v>
+      </c>
+      <c r="D139" s="6">
+        <v>5.7072021121229964E-2</v>
+      </c>
+      <c r="F139" s="6">
+        <v>50.75</v>
+      </c>
+      <c r="G139" s="6">
+        <v>8.9843455109877386</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>103</v>
+      </c>
+      <c r="B140" s="6">
+        <v>8.8838325273660566</v>
+      </c>
+      <c r="C140" s="6">
+        <v>0.24753255795176976</v>
+      </c>
+      <c r="D140" s="6">
+        <v>0.62868179485091669</v>
+      </c>
+      <c r="F140" s="6">
+        <v>51.25</v>
+      </c>
+      <c r="G140" s="6">
+        <v>8.9852549376538917</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
+        <v>104</v>
+      </c>
+      <c r="B141" s="6">
+        <v>8.9813663989210433</v>
+      </c>
+      <c r="C141" s="6">
+        <v>4.0056798901568769E-2</v>
+      </c>
+      <c r="D141" s="6">
+        <v>0.10173603197009436</v>
+      </c>
+      <c r="F141" s="6">
+        <v>51.75</v>
+      </c>
+      <c r="G141" s="6">
+        <v>8.9901540294071438</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
+        <v>105</v>
+      </c>
+      <c r="B142" s="6">
+        <v>9.5799452594787038</v>
+      </c>
+      <c r="C142" s="6">
+        <v>-0.298048362889336</v>
+      </c>
+      <c r="D142" s="6">
+        <v>-0.7569815513729492</v>
+      </c>
+      <c r="F142" s="6">
+        <v>52.25</v>
+      </c>
+      <c r="G142" s="6">
+        <v>8.9916281819607065</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
+        <v>106</v>
+      </c>
+      <c r="B143" s="6">
+        <v>9.046789712486472</v>
+      </c>
+      <c r="C143" s="6">
+        <v>-0.22121478364964808</v>
+      </c>
+      <c r="D143" s="6">
+        <v>-0.56184006008419973</v>
+      </c>
+      <c r="F143" s="6">
+        <v>52.75</v>
+      </c>
+      <c r="G143" s="6">
+        <v>8.9918585115148257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
+        <v>107</v>
+      </c>
+      <c r="B144" s="6">
+        <v>8.8655765513128184</v>
+      </c>
+      <c r="C144" s="6">
+        <v>-0.19479487491433645</v>
+      </c>
+      <c r="D144" s="6">
+        <v>-0.49473892486000259</v>
+      </c>
+      <c r="F144" s="6">
+        <v>53.25</v>
+      </c>
+      <c r="G144" s="6">
+        <v>8.9938899013900535</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
+        <v>108</v>
+      </c>
+      <c r="B145" s="6">
+        <v>9.2826912464166575</v>
+      </c>
+      <c r="C145" s="6">
+        <v>0.13847120926273604</v>
+      </c>
+      <c r="D145" s="6">
+        <v>0.35168839644696676</v>
+      </c>
+      <c r="F145" s="6">
+        <v>53.75</v>
+      </c>
+      <c r="G145" s="6">
+        <v>9.0021628151157884</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="6">
+        <v>109</v>
+      </c>
+      <c r="B146" s="6">
+        <v>8.8595595035035544</v>
+      </c>
+      <c r="C146" s="6">
+        <v>-0.10854574378028126</v>
+      </c>
+      <c r="D146" s="6">
+        <v>-0.27568386796419425</v>
+      </c>
+      <c r="F146" s="6">
+        <v>54.25</v>
+      </c>
+      <c r="G146" s="6">
+        <v>9.0046371222394868</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="6">
+        <v>110</v>
+      </c>
+      <c r="B147" s="6">
+        <v>8.8626541655668358</v>
+      </c>
+      <c r="C147" s="6">
+        <v>0.14198295667265093</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0.36060751271594066</v>
+      </c>
+      <c r="F147" s="6">
+        <v>54.75</v>
+      </c>
+      <c r="G147" s="6">
+        <v>9.0138571808841679</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="6">
+        <v>111</v>
+      </c>
+      <c r="B148" s="6">
+        <v>9.3164039573627733</v>
+      </c>
+      <c r="C148" s="6">
+        <v>0.19156799094190191</v>
+      </c>
+      <c r="D148" s="6">
+        <v>0.48654330314319766</v>
+      </c>
+      <c r="F148" s="6">
+        <v>55.25</v>
+      </c>
+      <c r="G148" s="6">
+        <v>9.0201009431604824</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="6">
+        <v>112</v>
+      </c>
+      <c r="B149" s="6">
+        <v>8.5950374800432936</v>
+      </c>
+      <c r="C149" s="6">
+        <v>0.30375499835198561</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0.77147523194129475</v>
+      </c>
+      <c r="F149" s="6">
+        <v>55.75</v>
+      </c>
+      <c r="G149" s="6">
+        <v>9.021423197822612</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="6">
+        <v>113</v>
+      </c>
+      <c r="B150" s="6">
+        <v>8.8650511077481973</v>
+      </c>
+      <c r="C150" s="6">
+        <v>-5.1210554080771686E-2</v>
+      </c>
+      <c r="D150" s="6">
+        <v>-0.13006427647825833</v>
+      </c>
+      <c r="F150" s="6">
+        <v>56.25</v>
+      </c>
+      <c r="G150" s="6">
+        <v>9.0234863691951368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="6">
+        <v>114</v>
+      </c>
+      <c r="B151" s="6">
+        <v>8.9023060593593986</v>
+      </c>
+      <c r="C151" s="6">
+        <v>0.16762398757558294</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0.42573045841354873</v>
+      </c>
+      <c r="F151" s="6">
+        <v>56.75</v>
+      </c>
+      <c r="G151" s="6">
+        <v>9.0255511524812952</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="6">
+        <v>115</v>
+      </c>
+      <c r="B152" s="6">
+        <v>9.3194653952565147</v>
+      </c>
+      <c r="C152" s="6">
+        <v>-0.23577381647284668</v>
+      </c>
+      <c r="D152" s="6">
+        <v>-0.59881700955023853</v>
+      </c>
+      <c r="F152" s="6">
+        <v>57.25</v>
+      </c>
+      <c r="G152" s="6">
+        <v>9.0583312404114107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="6">
+        <v>116</v>
+      </c>
+      <c r="B153" s="6">
+        <v>9.0979192282071537</v>
+      </c>
+      <c r="C153" s="6">
+        <v>-4.4289624145097406E-3</v>
+      </c>
+      <c r="D153" s="6">
+        <v>-1.1248653765472577E-2</v>
+      </c>
+      <c r="F153" s="6">
+        <v>57.75</v>
+      </c>
+      <c r="G153" s="6">
+        <v>9.058570804660782</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
+        <v>117</v>
+      </c>
+      <c r="B154" s="6">
+        <v>8.794656109803606</v>
+      </c>
+      <c r="C154" s="6">
+        <v>0.8718769791914287</v>
+      </c>
+      <c r="D154" s="6">
+        <v>2.2143882352400013</v>
+      </c>
+      <c r="F154" s="6">
+        <v>58.25</v>
+      </c>
+      <c r="G154" s="6">
+        <v>9.06825822790986</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="6">
+        <v>118</v>
+      </c>
+      <c r="B155" s="6">
+        <v>9.1776663623759607</v>
+      </c>
+      <c r="C155" s="6">
+        <v>-0.22079224565315769</v>
+      </c>
+      <c r="D155" s="6">
+        <v>-0.56076690046340338</v>
+      </c>
+      <c r="F155" s="6">
+        <v>58.75</v>
+      </c>
+      <c r="G155" s="6">
+        <v>9.0699300469349815</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
+        <v>119</v>
+      </c>
+      <c r="B156" s="6">
+        <v>9.0292981357479327</v>
+      </c>
+      <c r="C156" s="6">
+        <v>-0.2649107076397712</v>
+      </c>
+      <c r="D156" s="6">
+        <v>-0.67281872143319432</v>
+      </c>
+      <c r="F156" s="6">
+        <v>59.25</v>
+      </c>
+      <c r="G156" s="6">
+        <v>9.0700981961173319</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="6">
+        <v>120</v>
+      </c>
+      <c r="B157" s="6">
+        <v>8.9158966825133152</v>
+      </c>
+      <c r="C157" s="6">
+        <v>0.16527982148483744</v>
+      </c>
+      <c r="D157" s="6">
+        <v>0.4197767585950154</v>
+      </c>
+      <c r="F157" s="6">
+        <v>59.75</v>
+      </c>
+      <c r="G157" s="6">
+        <v>9.0767189658167773</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="6">
+        <v>121</v>
+      </c>
+      <c r="B158" s="6">
+        <v>9.4409435146657454</v>
+      </c>
+      <c r="C158" s="6">
+        <v>-0.62007464566393899</v>
+      </c>
+      <c r="D158" s="6">
+        <v>-1.5748620884591165</v>
+      </c>
+      <c r="F158" s="6">
+        <v>60.25</v>
+      </c>
+      <c r="G158" s="6">
+        <v>9.0773131218162035</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="6">
+        <v>122</v>
+      </c>
+      <c r="B159" s="6">
+        <v>9.1871602311006786</v>
+      </c>
+      <c r="C159" s="6">
+        <v>-1.3662213517440236E-2</v>
+      </c>
+      <c r="D159" s="6">
+        <v>-3.4699212850433737E-2</v>
+      </c>
+      <c r="F159" s="6">
+        <v>60.75</v>
+      </c>
+      <c r="G159" s="6">
+        <v>9.0811765039981527</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="6">
+        <v>123</v>
+      </c>
+      <c r="B160" s="6">
+        <v>8.8498340458068387</v>
+      </c>
+      <c r="C160" s="6">
+        <v>1.212491152527484E-2</v>
+      </c>
+      <c r="D160" s="6">
+        <v>3.0794781919571131E-2</v>
+      </c>
+      <c r="F160" s="6">
+        <v>61.25</v>
+      </c>
+      <c r="G160" s="6">
+        <v>9.0829061761691658</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="6">
+        <v>124</v>
+      </c>
+      <c r="B161" s="6">
+        <v>8.9165801250628558</v>
+      </c>
+      <c r="C161" s="6">
+        <v>0.28073381514663076</v>
+      </c>
+      <c r="D161" s="6">
+        <v>0.71300616065268374</v>
+      </c>
+      <c r="F161" s="6">
+        <v>61.75</v>
+      </c>
+      <c r="G161" s="6">
+        <v>9.0836915787836681</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="6">
+        <v>125</v>
+      </c>
+      <c r="B162" s="6">
+        <v>9.4983713753693237</v>
+      </c>
+      <c r="C162" s="6">
+        <v>-0.1628114098522051</v>
+      </c>
+      <c r="D162" s="6">
+        <v>-0.41350750064981795</v>
+      </c>
+      <c r="F162" s="6">
+        <v>62.25</v>
+      </c>
+      <c r="G162" s="6">
+        <v>9.093490265792644</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="6">
+        <v>126</v>
+      </c>
+      <c r="B163" s="6">
+        <v>8.9475579180579707</v>
+      </c>
+      <c r="C163" s="6">
+        <v>-0.2104039904977828</v>
+      </c>
+      <c r="D163" s="6">
+        <v>-0.53438286859910655</v>
+      </c>
+      <c r="F163" s="6">
+        <v>62.75</v>
+      </c>
+      <c r="G163" s="6">
+        <v>9.0965133236770512</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="6">
+        <v>127</v>
+      </c>
+      <c r="B164" s="6">
+        <v>8.9649406993729492</v>
+      </c>
+      <c r="C164" s="6">
+        <v>-9.9800478822128724E-2</v>
+      </c>
+      <c r="D164" s="6">
+        <v>-0.25347269333798844</v>
+      </c>
+      <c r="F164" s="6">
+        <v>63.25</v>
+      </c>
+      <c r="G164" s="6">
+        <v>9.1313650853178263</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="6">
+        <v>128</v>
+      </c>
+      <c r="B165" s="6">
+        <v>8.82732536594804</v>
+      </c>
+      <c r="C165" s="6">
+        <v>0.16656453544201355</v>
+      </c>
+      <c r="D165" s="6">
+        <v>0.42303966785895503</v>
+      </c>
+      <c r="F165" s="6">
+        <v>63.75</v>
+      </c>
+      <c r="G165" s="6">
+        <v>9.1387203545304576</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
+        <v>129</v>
+      </c>
+      <c r="B166" s="6">
+        <v>9.4700882035504517</v>
+      </c>
+      <c r="C166" s="6">
+        <v>-0.13199573263423048</v>
+      </c>
+      <c r="D166" s="6">
+        <v>-0.33524201742107212</v>
+      </c>
+      <c r="F166" s="6">
+        <v>64.25</v>
+      </c>
+      <c r="G166" s="6">
+        <v>9.1514127476186022</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="6">
+        <v>130</v>
+      </c>
+      <c r="B167" s="6">
+        <v>8.8496869733452304</v>
+      </c>
+      <c r="C167" s="6">
+        <v>6.9568260900341627E-2</v>
+      </c>
+      <c r="D167" s="6">
+        <v>0.17668907673957535</v>
+      </c>
+      <c r="F167" s="6">
+        <v>64.75</v>
+      </c>
+      <c r="G167" s="6">
+        <v>9.1596097889800348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <v>131</v>
+      </c>
+      <c r="B168" s="6">
+        <v>9.4344968884082849</v>
+      </c>
+      <c r="C168" s="6">
+        <v>-0.64171035099191442</v>
+      </c>
+      <c r="D168" s="6">
+        <v>-1.6298123308474628</v>
+      </c>
+      <c r="F168" s="6">
+        <v>65.25</v>
+      </c>
+      <c r="G168" s="6">
+        <v>9.1734980175832384</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
+        <v>132</v>
+      </c>
+      <c r="B169" s="6">
+        <v>8.596646431689404</v>
+      </c>
+      <c r="C169" s="6">
+        <v>5.3020488528678911E-2</v>
+      </c>
+      <c r="D169" s="6">
+        <v>0.13466113778284083</v>
+      </c>
+      <c r="F169" s="6">
+        <v>65.75</v>
+      </c>
+      <c r="G169" s="6">
+        <v>9.1805636899746563</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="6">
+        <v>133</v>
+      </c>
+      <c r="B170" s="6">
+        <v>8.6270076201159736</v>
+      </c>
+      <c r="C170" s="6">
+        <v>-4.984762279628363E-2</v>
+      </c>
+      <c r="D170" s="6">
+        <v>-0.12660271128747896</v>
+      </c>
+      <c r="F170" s="6">
+        <v>66.25</v>
+      </c>
+      <c r="G170" s="6">
+        <v>9.1826140986439846</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="6">
+        <v>134</v>
+      </c>
+      <c r="B171" s="6">
+        <v>8.906443142643198</v>
+      </c>
+      <c r="C171" s="6">
+        <v>-1.8922101252215384E-2</v>
+      </c>
+      <c r="D171" s="6">
+        <v>-4.8058246058732233E-2</v>
+      </c>
+      <c r="F171" s="6">
+        <v>66.75</v>
+      </c>
+      <c r="G171" s="6">
+        <v>9.1831798525261021</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>135</v>
+      </c>
+      <c r="B172" s="6">
+        <v>8.8347427140115542</v>
+      </c>
+      <c r="C172" s="6">
+        <v>-0.57556632739358449</v>
+      </c>
+      <c r="D172" s="6">
+        <v>-1.4618201126982777</v>
+      </c>
+      <c r="F172" s="6">
+        <v>67.25</v>
+      </c>
+      <c r="G172" s="6">
+        <v>9.1903069047808792</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
+        <v>136</v>
+      </c>
+      <c r="B173" s="6">
+        <v>8.9334242796889534</v>
+      </c>
+      <c r="C173" s="6">
+        <v>-5.6181099036457738E-2</v>
+      </c>
+      <c r="D173" s="6">
+        <v>-0.14268843852782895</v>
+      </c>
+      <c r="F173" s="6">
+        <v>67.75</v>
+      </c>
+      <c r="G173" s="6">
+        <v>9.1973139402094866</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="6">
+        <v>137</v>
+      </c>
+      <c r="B174" s="6">
+        <v>8.8716018387620093</v>
+      </c>
+      <c r="C174" s="6">
+        <v>-0.10487164994796316</v>
+      </c>
+      <c r="D174" s="6">
+        <v>-0.26635242516707142</v>
+      </c>
+      <c r="F174" s="6">
+        <v>68.25</v>
+      </c>
+      <c r="G174" s="6">
+        <v>9.2082025621656101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
+        <v>138</v>
+      </c>
+      <c r="B175" s="6">
+        <v>8.9192468679208439</v>
+      </c>
+      <c r="C175" s="6">
+        <v>-4.7298653078575725E-2</v>
+      </c>
+      <c r="D175" s="6">
+        <v>-0.12012885237207328</v>
+      </c>
+      <c r="F175" s="6">
+        <v>68.75</v>
+      </c>
+      <c r="G175" s="6">
+        <v>9.2162180504890117</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
+        <v>139</v>
+      </c>
+      <c r="B176" s="6">
+        <v>8.9473800072089986</v>
+      </c>
+      <c r="C176" s="6">
+        <v>-0.48612938332731659</v>
+      </c>
+      <c r="D176" s="6">
+        <v>-1.2346686664932984</v>
+      </c>
+      <c r="F176" s="6">
+        <v>69.25</v>
+      </c>
+      <c r="G176" s="6">
+        <v>9.2260233351711136</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="6">
+        <v>140</v>
+      </c>
+      <c r="B177" s="6">
+        <v>9.1396390781508714</v>
+      </c>
+      <c r="C177" s="6">
+        <v>-0.82287948023142832</v>
+      </c>
+      <c r="D177" s="6">
+        <v>-2.0899446636780699</v>
+      </c>
+      <c r="F177" s="6">
+        <v>69.75</v>
+      </c>
+      <c r="G177" s="6">
+        <v>9.2296434436887758</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="6">
+        <v>141</v>
+      </c>
+      <c r="B178" s="6">
+        <v>8.9868398261009315</v>
+      </c>
+      <c r="C178" s="6">
+        <v>-0.43682753496930715</v>
+      </c>
+      <c r="D178" s="6">
+        <v>-1.1094521100465287</v>
+      </c>
+      <c r="F178" s="6">
+        <v>70.25</v>
+      </c>
+      <c r="G178" s="6">
+        <v>9.2550569268162537</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="6">
+        <v>142</v>
+      </c>
+      <c r="B179" s="6">
+        <v>8.7297251964215814</v>
+      </c>
+      <c r="C179" s="6">
+        <v>-3.0101326816970086E-2</v>
+      </c>
+      <c r="D179" s="6">
+        <v>-7.6451180108493222E-2</v>
+      </c>
+      <c r="F179" s="6">
+        <v>70.75</v>
+      </c>
+      <c r="G179" s="6">
+        <v>9.2552292623119694</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
+        <v>143</v>
+      </c>
+      <c r="B180" s="6">
+        <v>8.7648041910293824</v>
+      </c>
+      <c r="C180" s="6">
+        <v>-8.8339015091140283E-2</v>
+      </c>
+      <c r="D180" s="6">
+        <v>-0.22436293238516677</v>
+      </c>
+      <c r="F180" s="6">
+        <v>71.25</v>
+      </c>
+      <c r="G180" s="6">
+        <v>9.2755610397101407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="6">
+        <v>144</v>
+      </c>
+      <c r="B181" s="6">
+        <v>8.9236284801140897</v>
+      </c>
+      <c r="C181" s="6">
+        <v>-9.3419400996410218E-2</v>
+      </c>
+      <c r="D181" s="6">
+        <v>-0.23726606785909793</v>
+      </c>
+      <c r="F181" s="6">
+        <v>71.75</v>
+      </c>
+      <c r="G181" s="6">
+        <v>9.2818968965893678</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="6">
+        <v>145</v>
+      </c>
+      <c r="B182" s="6">
+        <v>8.991787068463335</v>
+      </c>
+      <c r="C182" s="6">
+        <v>-0.47258296914434439</v>
+      </c>
+      <c r="D182" s="6">
+        <v>-1.2002635601395548</v>
+      </c>
+      <c r="F182" s="6">
+        <v>72.25</v>
+      </c>
+      <c r="G182" s="6">
+        <v>9.3208962542384395</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="6">
+        <v>146</v>
+      </c>
+      <c r="B183" s="6">
+        <v>8.8824031964685002</v>
+      </c>
+      <c r="C183" s="6">
+        <v>4.4797190796991515E-2</v>
+      </c>
+      <c r="D183" s="6">
+        <v>0.11377565257504034</v>
+      </c>
+      <c r="F183" s="6">
+        <v>72.75</v>
+      </c>
+      <c r="G183" s="6">
+        <v>9.3355599655171186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="6">
+        <v>147</v>
+      </c>
+      <c r="B184" s="6">
+        <v>8.8517252809626701</v>
+      </c>
+      <c r="C184" s="6">
+        <v>-0.21277789634994981</v>
+      </c>
+      <c r="D184" s="6">
+        <v>-0.54041210129599593</v>
+      </c>
+      <c r="F184" s="6">
+        <v>73.25</v>
+      </c>
+      <c r="G184" s="6">
+        <v>9.3380924709162212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="6">
+        <v>148</v>
+      </c>
+      <c r="B185" s="6">
+        <v>8.8453691309384954</v>
+      </c>
+      <c r="C185" s="6">
+        <v>-0.22583816459093775</v>
+      </c>
+      <c r="D185" s="6">
+        <v>-0.57358249692766283</v>
+      </c>
+      <c r="F185" s="6">
+        <v>73.75</v>
+      </c>
+      <c r="G185" s="6">
+        <v>9.3385639244160679</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="6">
+        <v>149</v>
+      </c>
+      <c r="B186" s="6">
+        <v>8.9079310649323471</v>
+      </c>
+      <c r="C186" s="6">
+        <v>-8.9204608769621885E-2</v>
+      </c>
+      <c r="D186" s="6">
+        <v>-0.22656136232869545</v>
+      </c>
+      <c r="F186" s="6">
+        <v>74.25</v>
+      </c>
+      <c r="G186" s="6">
+        <v>9.3391893287003374</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="6">
+        <v>150</v>
+      </c>
+      <c r="B187" s="6">
+        <v>8.8347790320017801</v>
+      </c>
+      <c r="C187" s="6">
+        <v>-0.83243383570142981</v>
+      </c>
+      <c r="D187" s="6">
+        <v>-2.114210761823812</v>
+      </c>
+      <c r="F187" s="6">
+        <v>74.75</v>
+      </c>
+      <c r="G187" s="6">
+        <v>9.3647603569918854</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="6">
+        <v>151</v>
+      </c>
+      <c r="B188" s="6">
+        <v>8.6143247603088096</v>
+      </c>
+      <c r="C188" s="6">
+        <v>-0.44656460382259411</v>
+      </c>
+      <c r="D188" s="6">
+        <v>-1.1341822626128191</v>
+      </c>
+      <c r="F188" s="6">
+        <v>75.25</v>
+      </c>
+      <c r="G188" s="6">
+        <v>9.371249244757859</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="6">
+        <v>152</v>
+      </c>
+      <c r="B189" s="6">
+        <v>8.8723724640512831</v>
+      </c>
+      <c r="C189" s="6">
+        <v>-1.8219725429203137E-2</v>
+      </c>
+      <c r="D189" s="6">
+        <v>-4.6274355904139856E-2</v>
+      </c>
+      <c r="F189" s="6">
+        <v>75.75</v>
+      </c>
+      <c r="G189" s="6">
+        <v>9.3972145227630524</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="6">
+        <v>153</v>
+      </c>
+      <c r="B190" s="6">
+        <v>9.0321883333736412</v>
+      </c>
+      <c r="C190" s="6">
+        <v>-0.18815481372955567</v>
+      </c>
+      <c r="D190" s="6">
+        <v>-0.47787453490617171</v>
+      </c>
+      <c r="F190" s="6">
+        <v>76.25</v>
+      </c>
+      <c r="G190" s="6">
+        <v>9.4207560149697489</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="6">
+        <v>154</v>
+      </c>
+      <c r="B191" s="6">
+        <v>9.1908644661895575</v>
+      </c>
+      <c r="C191" s="6">
+        <v>-0.35942370638419696</v>
+      </c>
+      <c r="D191" s="6">
+        <v>-0.91286230268590929</v>
+      </c>
+      <c r="F191" s="6">
+        <v>76.75</v>
+      </c>
+      <c r="G191" s="6">
+        <v>9.4211624556793936</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="6">
+        <v>155</v>
+      </c>
+      <c r="B192" s="6">
+        <v>8.8778601426952921</v>
+      </c>
+      <c r="C192" s="6">
+        <v>-0.94642783264527619</v>
+      </c>
+      <c r="D192" s="6">
+        <v>-2.4037320724501536</v>
+      </c>
+      <c r="F192" s="6">
+        <v>77.25</v>
+      </c>
+      <c r="G192" s="6">
+        <v>9.4394073632574855</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="6">
+        <v>156</v>
+      </c>
+      <c r="B193" s="6">
+        <v>8.7114603805232864</v>
+      </c>
+      <c r="C193" s="6">
+        <v>5.5184256217751582E-2</v>
+      </c>
+      <c r="D193" s="6">
+        <v>0.14015666275807126</v>
+      </c>
+      <c r="F193" s="6">
+        <v>77.75</v>
+      </c>
+      <c r="G193" s="6">
+        <v>9.4467331205833194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="6">
+        <v>157</v>
+      </c>
+      <c r="B194" s="6">
+        <v>8.8654467098359753</v>
+      </c>
+      <c r="C194" s="6">
+        <v>-9.502109243195811E-2</v>
+      </c>
+      <c r="D194" s="6">
+        <v>-0.24133403473517162</v>
+      </c>
+      <c r="F194" s="6">
+        <v>78.25</v>
+      </c>
+      <c r="G194" s="6">
+        <v>9.456476451817533</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="6">
+        <v>158</v>
+      </c>
+      <c r="B195" s="6">
+        <v>9.0574301738785667</v>
+      </c>
+      <c r="C195" s="6">
+        <v>-0.82458673212805422</v>
+      </c>
+      <c r="D195" s="6">
+        <v>-2.0942807324179347</v>
+      </c>
+      <c r="F195" s="6">
+        <v>78.75</v>
+      </c>
+      <c r="G195" s="6">
+        <v>9.4665594245621829</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="6">
+        <v>159</v>
+      </c>
+      <c r="B196" s="6">
+        <v>9.4347390543623249</v>
+      </c>
+      <c r="C196" s="6">
+        <v>-1.5255174832664853</v>
+      </c>
+      <c r="D196" s="6">
+        <v>-3.8745007016139486</v>
+      </c>
+      <c r="F196" s="6">
+        <v>79.25</v>
+      </c>
+      <c r="G196" s="6">
+        <v>9.5059080238720206</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="6">
+        <v>160</v>
+      </c>
+      <c r="B197" s="6">
+        <v>8.8946205259808071</v>
+      </c>
+      <c r="C197" s="6">
+        <v>-1.1027025552639795</v>
+      </c>
+      <c r="D197" s="6">
+        <v>-2.8006377317246738</v>
+      </c>
+      <c r="F197" s="6">
+        <v>79.75</v>
+      </c>
+      <c r="G197" s="6">
+        <v>9.5079719483046752</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="6">
+        <v>161</v>
+      </c>
+      <c r="B198" s="6">
+        <v>9.3478979951322714</v>
+      </c>
+      <c r="C198" s="6">
+        <v>-0.41629144760670833</v>
+      </c>
+      <c r="D198" s="6">
+        <v>-1.057294671165905</v>
+      </c>
+      <c r="F198" s="6">
+        <v>80.25</v>
+      </c>
+      <c r="G198" s="6">
+        <v>9.5143026688692345</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="6">
+        <v>162</v>
+      </c>
+      <c r="B199" s="6">
+        <v>9.0390045952850873</v>
+      </c>
+      <c r="C199" s="6">
+        <v>0.51199929050770088</v>
+      </c>
+      <c r="D199" s="6">
+        <v>1.3003729108697475</v>
+      </c>
+      <c r="F199" s="6">
+        <v>80.75</v>
+      </c>
+      <c r="G199" s="6">
+        <v>9.5510038857927881</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="6">
+        <v>163</v>
+      </c>
+      <c r="B200" s="6">
+        <v>8.8260630917020801</v>
+      </c>
+      <c r="C200" s="6">
+        <v>0.53869726528980522</v>
+      </c>
+      <c r="D200" s="6">
+        <v>1.3681802766715756</v>
+      </c>
+      <c r="F200" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="G200" s="6">
+        <v>9.552201307842866</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="6">
+        <v>164</v>
+      </c>
+      <c r="B201" s="6">
+        <v>8.9045002698417264</v>
+      </c>
+      <c r="C201" s="6">
+        <v>0.11898609935341042</v>
+      </c>
+      <c r="D201" s="6">
+        <v>0.30220022417570924</v>
+      </c>
+      <c r="F201" s="6">
+        <v>81.75</v>
+      </c>
+      <c r="G201" s="6">
+        <v>9.5665189998192304</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="6">
+        <v>165</v>
+      </c>
+      <c r="B202" s="6">
+        <v>8.7504176785084784</v>
+      </c>
+      <c r="C202" s="6">
+        <v>8.5900491076133179E-2</v>
+      </c>
+      <c r="D202" s="6">
+        <v>0.21816958284267773</v>
+      </c>
+      <c r="F202" s="6">
+        <v>82.25</v>
+      </c>
+      <c r="G202" s="6">
+        <v>9.5670101338370639</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="6">
+        <v>166</v>
+      </c>
+      <c r="B203" s="6">
+        <v>9.2655234732286953</v>
+      </c>
+      <c r="C203" s="6">
+        <v>-0.74937843690606165</v>
+      </c>
+      <c r="D203" s="6">
+        <v>-1.9032671283123586</v>
+      </c>
+      <c r="F203" s="6">
+        <v>82.75</v>
+      </c>
+      <c r="G203" s="6">
+        <v>9.5715855116731277</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="6">
+        <v>167</v>
+      </c>
+      <c r="B204" s="6">
+        <v>9.6474248152490603</v>
+      </c>
+      <c r="C204" s="6">
+        <v>-0.37186377553891958</v>
+      </c>
+      <c r="D204" s="6">
+        <v>-0.94445752017557949</v>
+      </c>
+      <c r="F204" s="6">
+        <v>83.25</v>
+      </c>
+      <c r="G204" s="6">
+        <v>9.6068574009817009</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="6">
+        <v>168</v>
+      </c>
+      <c r="B205" s="6">
+        <v>9.299410178613055</v>
+      </c>
+      <c r="C205" s="6">
+        <v>-9.1207616447444906E-2</v>
+      </c>
+      <c r="D205" s="6">
+        <v>-0.23164858993387902</v>
+      </c>
+      <c r="F205" s="6">
+        <v>83.75</v>
+      </c>
+      <c r="G205" s="6">
+        <v>9.6186619060630427</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="6">
+        <v>169</v>
+      </c>
+      <c r="B206" s="6">
+        <v>9.3844243995756571</v>
+      </c>
+      <c r="C206" s="6">
+        <v>3.6331615394091799E-2</v>
+      </c>
+      <c r="D206" s="6">
+        <v>9.2274831904097507E-2</v>
+      </c>
+      <c r="F206" s="6">
+        <v>84.25</v>
+      </c>
+      <c r="G206" s="6">
+        <v>9.6665330889950347</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="6">
+        <v>170</v>
+      </c>
+      <c r="B207" s="6">
+        <v>9.505390648110204</v>
+      </c>
+      <c r="C207" s="6">
+        <v>-0.53020983339494343</v>
+      </c>
+      <c r="D207" s="6">
+        <v>-1.3466239450055961</v>
+      </c>
+      <c r="F207" s="6">
+        <v>84.75</v>
+      </c>
+      <c r="G207" s="6">
+        <v>9.699909232058241</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="6">
+        <v>171</v>
+      </c>
+      <c r="B208" s="6">
+        <v>9.2987156643314091</v>
+      </c>
+      <c r="C208" s="6">
+        <v>0.26829446950565483</v>
+      </c>
+      <c r="D208" s="6">
+        <v>0.68141278073914757</v>
+      </c>
+      <c r="F208" s="6">
+        <v>85.25</v>
+      </c>
+      <c r="G208" s="6">
+        <v>9.7178277724419981</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="6">
+        <v>172</v>
+      </c>
+      <c r="B209" s="6">
+        <v>8.6935885359377529</v>
+      </c>
+      <c r="C209" s="6">
+        <v>0.28581086399996103</v>
+      </c>
+      <c r="D209" s="6">
+        <v>0.72590082070091622</v>
+      </c>
+      <c r="F209" s="6">
+        <v>85.75</v>
+      </c>
+      <c r="G209" s="6">
+        <v>9.7181151119150346</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="6">
+        <v>173</v>
+      </c>
+      <c r="B210" s="6">
+        <v>8.8792172587178797</v>
+      </c>
+      <c r="C210" s="6">
+        <v>-7.1332577340042391E-2</v>
+      </c>
+      <c r="D210" s="6">
+        <v>-0.18117007768415483</v>
+      </c>
+      <c r="F210" s="6">
+        <v>86.25</v>
+      </c>
+      <c r="G210" s="6">
+        <v>9.726508182278037</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="6">
+        <v>174</v>
+      </c>
+      <c r="B211" s="6">
+        <v>9.3778047754369549</v>
+      </c>
+      <c r="C211" s="6">
+        <v>-0.19519067679297031</v>
+      </c>
+      <c r="D211" s="6">
+        <v>-0.49574418023943184</v>
+      </c>
+      <c r="F211" s="6">
+        <v>86.75</v>
+      </c>
+      <c r="G211" s="6">
+        <v>9.7311661389403294</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="6">
+        <v>175</v>
+      </c>
+      <c r="B212" s="6">
+        <v>9.0105682610668225</v>
+      </c>
+      <c r="C212" s="6">
+        <v>-4.3145273980240262E-2</v>
+      </c>
+      <c r="D212" s="6">
+        <v>-0.10958012355900705</v>
+      </c>
+      <c r="F212" s="6">
+        <v>87.25</v>
+      </c>
+      <c r="G212" s="6">
+        <v>9.7400877092702274</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="6">
+        <v>176</v>
+      </c>
+      <c r="B213" s="6">
+        <v>9.2149652702756093</v>
+      </c>
+      <c r="C213" s="6">
+        <v>-3.1785417749507161E-2</v>
+      </c>
+      <c r="D213" s="6">
+        <v>-8.0728424762369647E-2</v>
+      </c>
+      <c r="F213" s="6">
+        <v>87.75</v>
+      </c>
+      <c r="G213" s="6">
+        <v>9.7418957197340195</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="6">
+        <v>177</v>
+      </c>
+      <c r="B214" s="6">
+        <v>8.9521338745575356</v>
+      </c>
+      <c r="C214" s="6">
+        <v>8.2152062036264795E-3</v>
+      </c>
+      <c r="D214" s="6">
+        <v>2.0864934390459462E-2</v>
+      </c>
+      <c r="F214" s="6">
+        <v>88.25</v>
+      </c>
+      <c r="G214" s="6">
+        <v>9.7588079898091991</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="6">
+        <v>178</v>
+      </c>
+      <c r="B215" s="6">
+        <v>8.8502987907948523</v>
+      </c>
+      <c r="C215" s="6">
+        <v>-0.7910913879801047</v>
+      </c>
+      <c r="D215" s="6">
+        <v>-2.0092094462310683</v>
+      </c>
+      <c r="F215" s="6">
+        <v>88.75</v>
+      </c>
+      <c r="G215" s="6">
+        <v>9.7700150663937269</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="6">
+        <v>179</v>
+      </c>
+      <c r="B216" s="6">
+        <v>8.8610055600701045</v>
+      </c>
+      <c r="C216" s="6">
+        <v>0.22190061609906131</v>
+      </c>
+      <c r="D216" s="6">
+        <v>0.5635819334718134</v>
+      </c>
+      <c r="F216" s="6">
+        <v>89.25</v>
+      </c>
+      <c r="G216" s="6">
+        <v>9.7768332304954662</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="6">
+        <v>180</v>
+      </c>
+      <c r="B217" s="6">
+        <v>9.3198651884243109</v>
+      </c>
+      <c r="C217" s="6">
+        <v>-0.46320872837691773</v>
+      </c>
+      <c r="D217" s="6">
+        <v>-1.1764549162997464</v>
+      </c>
+      <c r="F217" s="6">
+        <v>89.75</v>
+      </c>
+      <c r="G217" s="6">
+        <v>9.7781951674739958</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="6">
+        <v>181</v>
+      </c>
+      <c r="B218" s="6">
+        <v>8.7317874865682441</v>
+      </c>
+      <c r="C218" s="6">
+        <v>0.23086064684678043</v>
+      </c>
+      <c r="D218" s="6">
+        <v>0.58633856903929704</v>
+      </c>
+      <c r="F218" s="6">
+        <v>90.25</v>
+      </c>
+      <c r="G218" s="6">
+        <v>9.7836766094534866</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="6">
+        <v>182</v>
+      </c>
+      <c r="B219" s="6">
+        <v>9.3106091895701155</v>
+      </c>
+      <c r="C219" s="6">
+        <v>-0.15919644195151328</v>
+      </c>
+      <c r="D219" s="6">
+        <v>-0.40432622556042869</v>
+      </c>
+      <c r="F219" s="6">
+        <v>90.75</v>
+      </c>
+      <c r="G219" s="6">
+        <v>9.805766109110774</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="6">
+        <v>183</v>
+      </c>
+      <c r="B220" s="6">
+        <v>8.8830223512012498</v>
+      </c>
+      <c r="C220" s="6">
+        <v>0.45554157321481803</v>
+      </c>
+      <c r="D220" s="6">
+        <v>1.1569819188540993</v>
+      </c>
+      <c r="F220" s="6">
+        <v>91.25</v>
+      </c>
+      <c r="G220" s="6">
+        <v>9.8516160885793127</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="6">
+        <v>184</v>
+      </c>
+      <c r="B221" s="6">
+        <v>9.1868039894421294</v>
+      </c>
+      <c r="C221" s="6">
+        <v>-0.18464117432634097</v>
+      </c>
+      <c r="D221" s="6">
+        <v>-0.46895061336328392</v>
+      </c>
+      <c r="F221" s="6">
+        <v>91.75</v>
+      </c>
+      <c r="G221" s="6">
+        <v>9.8652113756232236</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="6">
+        <v>185</v>
+      </c>
+      <c r="B222" s="6">
+        <v>8.9601805209048297</v>
+      </c>
+      <c r="C222" s="6">
+        <v>-0.17737589394332076</v>
+      </c>
+      <c r="D222" s="6">
+        <v>-0.45049829521537277</v>
+      </c>
+      <c r="F222" s="6">
+        <v>92.25</v>
+      </c>
+      <c r="G222" s="6">
+        <v>9.8889207058172097</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="6">
+        <v>186</v>
+      </c>
+      <c r="B223" s="6">
+        <v>8.8104028970116577</v>
+      </c>
+      <c r="C223" s="6">
+        <v>-3.3486809690579378E-2</v>
+      </c>
+      <c r="D223" s="6">
+        <v>-8.5049610420163305E-2</v>
+      </c>
+      <c r="F223" s="6">
+        <v>92.75</v>
+      </c>
+      <c r="G223" s="6">
+        <v>9.9224202596264952</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="6">
+        <v>187</v>
+      </c>
+      <c r="B224" s="6">
+        <v>9.3869278005845569</v>
+      </c>
+      <c r="C224" s="6">
+        <v>-0.31682960446722497</v>
+      </c>
+      <c r="D224" s="6">
+        <v>-0.80468204282513422</v>
+      </c>
+      <c r="F224" s="6">
+        <v>93.25</v>
+      </c>
+      <c r="G224" s="6">
+        <v>9.9262629824520374</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="6">
+        <v>188</v>
+      </c>
+      <c r="B225" s="6">
+        <v>9.5388085878413076</v>
+      </c>
+      <c r="C225" s="6">
+        <v>-0.40008823331084997</v>
+      </c>
+      <c r="D225" s="6">
+        <v>-1.016141838867137</v>
+      </c>
+      <c r="F225" s="6">
+        <v>93.75</v>
+      </c>
+      <c r="G225" s="6">
+        <v>9.9670561869187804</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="6">
+        <v>189</v>
+      </c>
+      <c r="B226" s="6">
+        <v>8.9501759408741286</v>
+      </c>
+      <c r="C226" s="6">
+        <v>6.3681240010039275E-2</v>
+      </c>
+      <c r="D226" s="6">
+        <v>0.16173725427926991</v>
+      </c>
+      <c r="F226" s="6">
+        <v>94.25</v>
+      </c>
+      <c r="G226" s="6">
+        <v>9.9837086292644965</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="6">
+        <v>190</v>
+      </c>
+      <c r="B227" s="6">
+        <v>8.8286599298461983</v>
+      </c>
+      <c r="C227" s="6">
+        <v>0.15659500780769342</v>
+      </c>
+      <c r="D227" s="6">
+        <v>0.39771911779143054</v>
+      </c>
+      <c r="F227" s="6">
+        <v>94.75</v>
+      </c>
+      <c r="G227" s="6">
+        <v>9.9938152713578745</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="6">
+        <v>191</v>
+      </c>
+      <c r="B228" s="6">
+        <v>9.2934239592238495</v>
+      </c>
+      <c r="C228" s="6">
+        <v>7.7825285534009581E-2</v>
+      </c>
+      <c r="D228" s="6">
+        <v>0.1976602213428402</v>
+      </c>
+      <c r="F228" s="6">
+        <v>95.25</v>
+      </c>
+      <c r="G228" s="6">
+        <v>10.092425857509269</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="6">
+        <v>192</v>
+      </c>
+      <c r="B229" s="6">
+        <v>9.5318862667118225</v>
+      </c>
+      <c r="C229" s="6">
+        <v>-0.71485022781413932</v>
+      </c>
+      <c r="D229" s="6">
+        <v>-1.815572577565111</v>
+      </c>
+      <c r="F229" s="6">
+        <v>95.75</v>
+      </c>
+      <c r="G229" s="6">
+        <v>10.104307956970956</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="6">
+        <v>193</v>
+      </c>
+      <c r="B230" s="6">
+        <v>8.7246384619243713</v>
+      </c>
+      <c r="C230" s="6">
+        <v>-5.6681829101806969E-2</v>
+      </c>
+      <c r="D230" s="6">
+        <v>-0.14396018992418833</v>
+      </c>
+      <c r="F230" s="6">
+        <v>96.25</v>
+      </c>
+      <c r="G230" s="6">
+        <v>10.129155239030721</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="6">
+        <v>194</v>
+      </c>
+      <c r="B231" s="6">
+        <v>9.42795329434691</v>
+      </c>
+      <c r="C231" s="6">
+        <v>-0.50279159099233262</v>
+      </c>
+      <c r="D231" s="6">
+        <v>-1.2769872475627917</v>
+      </c>
+      <c r="F231" s="6">
+        <v>96.75</v>
+      </c>
+      <c r="G231" s="6">
+        <v>10.177437731740437</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="6">
+        <v>195</v>
+      </c>
+      <c r="B232" s="6">
+        <v>8.7860780664153904</v>
+      </c>
+      <c r="C232" s="6">
+        <v>-0.1136988116908384</v>
+      </c>
+      <c r="D232" s="6">
+        <v>-0.28877160078530034</v>
+      </c>
+      <c r="F232" s="6">
+        <v>97.25</v>
+      </c>
+      <c r="G232" s="6">
+        <v>10.19911500952176</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="6">
+        <v>196</v>
+      </c>
+      <c r="B233" s="6">
+        <v>8.764762562199504</v>
+      </c>
+      <c r="C233" s="6">
+        <v>2.656598469086191E-2</v>
+      </c>
+      <c r="D233" s="6">
+        <v>6.7472138112382132E-2</v>
+      </c>
+      <c r="F233" s="6">
+        <v>97.75</v>
+      </c>
+      <c r="G233" s="6">
+        <v>10.331616983857973</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="6">
+        <v>197</v>
+      </c>
+      <c r="B234" s="6">
+        <v>8.6009572863238528</v>
+      </c>
+      <c r="C234" s="6">
+        <v>0.4576135183369292</v>
+      </c>
+      <c r="D234" s="6">
+        <v>1.1622442333915479</v>
+      </c>
+      <c r="F234" s="6">
+        <v>98.25</v>
+      </c>
+      <c r="G234" s="6">
+        <v>10.378596713516718</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="6">
+        <v>198</v>
+      </c>
+      <c r="B235" s="6">
+        <v>8.9589183650113249</v>
+      </c>
+      <c r="C235" s="6">
+        <v>0.38027096368901248</v>
+      </c>
+      <c r="D235" s="6">
+        <v>0.96581004923108904</v>
+      </c>
+      <c r="F235" s="6">
+        <v>98.75</v>
+      </c>
+      <c r="G235" s="6">
+        <v>10.45345147769503</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="6">
+        <v>199</v>
+      </c>
+      <c r="B236" s="6">
+        <v>9.0772083297445274</v>
+      </c>
+      <c r="C236" s="6">
+        <v>-0.3040713429492623</v>
+      </c>
+      <c r="D236" s="6">
+        <v>-0.77227868216559237</v>
+      </c>
+      <c r="F236" s="6">
+        <v>99.25</v>
+      </c>
+      <c r="G236" s="6">
+        <v>10.581872633975735</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7">
+        <v>200</v>
+      </c>
+      <c r="B237" s="7">
+        <v>8.9236609098541084</v>
+      </c>
+      <c r="C237" s="7">
+        <v>0.10189024262718682</v>
+      </c>
+      <c r="D237" s="7">
+        <v>0.25878026366590623</v>
+      </c>
+      <c r="F237" s="7">
+        <v>99.75</v>
+      </c>
+      <c r="G237" s="7">
+        <v>10.674152530594819</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G38:G237">
+    <sortCondition ref="G38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I237"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
